--- a/To.Rpa.AppCTS/CTS/USER_FINAL/Plantilla abono CTS - 3976.xlsx
+++ b/To.Rpa.AppCTS/CTS/USER_FINAL/Plantilla abono CTS - 3976.xlsx
@@ -1488,7 +1488,7 @@
         <x:v>_________________________-———-—————-——---</x:v>
       </x:c>
       <x:c r="D25" s="32" t="n">
-        <x:v>ntas. En caso de</x:v>
+        <x:v>{20224748711</x:v>
       </x:c>
       <x:c r="E25" s="36" t="n">
         <x:v>32985941</x:v>
@@ -1526,7 +1526,7 @@
         <x:v>MICHEL IVAN PINEDO VERA</x:v>
       </x:c>
       <x:c r="D26" s="32" t="n">
-        <x:v>? DNl</x:v>
+        <x:v>MAY</x:v>
       </x:c>
       <x:c r="E26" s="36" t="n">
         <x:v>32934032</x:v>
@@ -1564,7 +1564,7 @@
         <x:v>JAIME DAVID SAIRITUPAC EGUSQUIZA</x:v>
       </x:c>
       <x:c r="D27" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>IFCO GRANA 1</x:v>
       </x:c>
       <x:c r="E27" s="36" t="n">
         <x:v>40229366</x:v>
@@ -1602,7 +1602,7 @@
         <x:v>CLEVER ALCIDES GARCIA SAAVEDRA</x:v>
       </x:c>
       <x:c r="D28" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>[GUSTAVO DEl</x:v>
       </x:c>
       <x:c r="E28" s="36" t="n">
         <x:v>25738682</x:v>
@@ -1640,7 +1640,7 @@
         <x:v>BILLY HERNAN GUANILO ESPINOZA</x:v>
       </x:c>
       <x:c r="D29" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>'* e la instruociér</x:v>
       </x:c>
       <x:c r="E29" s="36" t="n">
         <x:v>32960627</x:v>
@@ -1678,7 +1678,7 @@
         <x:v>LENIN JOSE LUIS LA ROSA CRUZ</x:v>
       </x:c>
       <x:c r="D30" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>:le estas 59 reth</x:v>
       </x:c>
       <x:c r="E30" s="36" t="n">
         <x:v>40275186</x:v>
@@ -1716,7 +1716,7 @@
         <x:v>CARLOS HERMOGENES MARTINEZ HERNANDEZ</x:v>
       </x:c>
       <x:c r="D31" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>de !a operacién «</x:v>
       </x:c>
       <x:c r="E31" s="36" t="n">
         <x:v>16679988</x:v>
@@ -1754,7 +1754,7 @@
         <x:v>BALTAZAR PISFIL CUSTODIO</x:v>
       </x:c>
       <x:c r="D32" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>a la empresalem</x:v>
       </x:c>
       <x:c r="E32" s="36" t="n">
         <x:v>08593828</x:v>
@@ -1792,7 +1792,7 @@
         <x:v>MOTOR RAUL DIAZ PALACIOS</x:v>
       </x:c>
       <x:c r="D33" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>wesa/empleador,</x:v>
       </x:c>
       <x:c r="E33" s="36" t="n">
         <x:v>18174774</x:v>
@@ -1830,7 +1830,7 @@
         <x:v>MIRO IVAN SILVA MOLINA</x:v>
       </x:c>
       <x:c r="D34" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>ntas. En caso de</x:v>
       </x:c>
       <x:c r="E34" s="36" t="n">
         <x:v>32956376</x:v>
@@ -1868,7 +1868,7 @@
         <x:v>BLADIMIRO ESTRADA MENDIETA</x:v>
       </x:c>
       <x:c r="D35" s="32" t="n">
-        <x:v>DNI</x:v>
+        <x:v>? DNl</x:v>
       </x:c>
       <x:c r="E35" s="36" t="n">
         <x:v>32950996</x:v>
@@ -2133,8 +2133,8 @@
       <x:c r="C42" s="35" t="n">
         <x:v>MARCELINO SEVILLANO OLORTIGUE</x:v>
       </x:c>
-      <x:c r="D42" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D42" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E42" s="36" t="n">
         <x:v>32863288</x:v>
@@ -2171,8 +2171,8 @@
       <x:c r="C43" s="35" t="n">
         <x:v>WILFREDO DIDI MARINOS PEREDA</x:v>
       </x:c>
-      <x:c r="D43" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D43" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E43" s="36" t="n">
         <x:v>32908422</x:v>
@@ -2209,8 +2209,8 @@
       <x:c r="C44" s="35" t="n">
         <x:v>WALTER GENARO NATIVIDAD SANDONAS</x:v>
       </x:c>
-      <x:c r="D44" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D44" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E44" s="36" t="n">
         <x:v>32906767</x:v>
@@ -2247,8 +2247,8 @@
       <x:c r="C45" s="35" t="n">
         <x:v>SEGUNDO PEDRO CUEVA HUARAZ</x:v>
       </x:c>
-      <x:c r="D45" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D45" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E45" s="36" t="n">
         <x:v>32116960</x:v>
@@ -2285,8 +2285,8 @@
       <x:c r="C46" s="35" t="n">
         <x:v>RAUL VALENTIN GULARTE MALDONADO</x:v>
       </x:c>
-      <x:c r="D46" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D46" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E46" s="36" t="n">
         <x:v>41122711</x:v>
@@ -2323,8 +2323,8 @@
       <x:c r="C47" s="35" t="n">
         <x:v>LUIS LENNY SANTILLAN ORTIZ</x:v>
       </x:c>
-      <x:c r="D47" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D47" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E47" s="36" t="n">
         <x:v>32978938</x:v>
@@ -2361,8 +2361,8 @@
       <x:c r="C48" s="35" t="n">
         <x:v>JORGEJUAN FLORES CASTILLO</x:v>
       </x:c>
-      <x:c r="D48" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D48" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E48" s="36" t="n">
         <x:v>15977502</x:v>
@@ -2399,8 +2399,8 @@
       <x:c r="C49" s="35" t="n">
         <x:v>YSMAEL HIDALGO FIGUEROA REYNA</x:v>
       </x:c>
-      <x:c r="D49" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D49" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E49" s="36" t="n">
         <x:v>32875603</x:v>
@@ -2437,8 +2437,8 @@
       <x:c r="C50" s="35" t="n">
         <x:v>EDUARDO NORIEGA CARBAJAL</x:v>
       </x:c>
-      <x:c r="D50" s="32" t="s">
-        <x:v>38</x:v>
+      <x:c r="D50" s="32" t="n">
+        <x:v>DNI</x:v>
       </x:c>
       <x:c r="E50" s="36" t="n">
         <x:v>40668907</x:v>
@@ -2744,13 +2744,19 @@
       <x:c r="D58" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="E58" s="36"/>
-      <x:c r="F58" s="35"/>
+      <x:c r="E58" s="36" t="n">
+        <x:v>32943751</x:v>
+      </x:c>
+      <x:c r="F58" s="35" t="n">
+        <x:v>000685853748</x:v>
+      </x:c>
       <x:c r="G58" s="40" t="str">
         <x:f t="shared" si="0"/>
         <x:v>SOL</x:v>
       </x:c>
-      <x:c r="H58" s="35"/>
+      <x:c r="H58" s="35" t="n">
+        <x:v>241.28</x:v>
+      </x:c>
       <x:c r="I58" s="40" t="n">
         <x:f t="shared" si="1"/>
         <x:v>DOL</x:v>
@@ -2769,7 +2775,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C59" s="35" t="n">
-        <x:v>-—-——-——-——-—~———-————_____.._.__________</x:v>
+        <x:v>JUAN FRANCISCO MORALES MUNOZ</x:v>
       </x:c>
       <x:c r="D59" s="32" t="s">
         <x:v>38</x:v>
@@ -2780,7 +2786,9 @@
         <x:f t="shared" si="0"/>
         <x:v>SOL</x:v>
       </x:c>
-      <x:c r="H59" s="35"/>
+      <x:c r="H59" s="35" t="n">
+        <x:v>345.80</x:v>
+      </x:c>
       <x:c r="I59" s="40" t="n">
         <x:f t="shared" si="1"/>
         <x:v>DOL</x:v>
@@ -2799,7 +2807,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C60" s="35" t="n">
-        <x:v>)MAR HENRY CHIRINOS FMARDO</x:v>
+        <x:v>___.__.________________________</x:v>
       </x:c>
       <x:c r="D60" s="32" t="s">
         <x:v>38</x:v>
@@ -2828,7 +2836,9 @@
       <x:c r="B61" s="9">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C61" s="35"/>
+      <x:c r="C61" s="35" t="n">
+        <x:v>JESUS ALBERTO RAMOS ARTEAGA</x:v>
+      </x:c>
       <x:c r="D61" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2856,7 +2866,9 @@
       <x:c r="B62" s="9">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C62" s="35"/>
+      <x:c r="C62" s="35" t="n">
+        <x:v>M</x:v>
+      </x:c>
       <x:c r="D62" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2884,7 +2896,9 @@
       <x:c r="B63" s="9">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C63" s="35"/>
+      <x:c r="C63" s="35" t="n">
+        <x:v>ENNAR ERMITANO MENDIETA CONTRERAS</x:v>
+      </x:c>
       <x:c r="D63" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2912,7 +2926,9 @@
       <x:c r="B64" s="9">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C64" s="35"/>
+      <x:c r="C64" s="35" t="n">
+        <x:v>MALCOM AMILCAR VIDAL RODRIGUEZ</x:v>
+      </x:c>
       <x:c r="D64" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2940,7 +2956,9 @@
       <x:c r="B65" s="9">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C65" s="35"/>
+      <x:c r="C65" s="35" t="n">
+        <x:v>ROBERT ALEXANDER CANO CRUZ</x:v>
+      </x:c>
       <x:c r="D65" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2968,7 +2986,9 @@
       <x:c r="B66" s="9">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C66" s="35"/>
+      <x:c r="C66" s="35" t="n">
+        <x:v>————____._____________.__</x:v>
+      </x:c>
       <x:c r="D66" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -2996,7 +3016,9 @@
       <x:c r="B67" s="9">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C67" s="35"/>
+      <x:c r="C67" s="35" t="n">
+        <x:v>SANTOS MARQUEZ SICCHA</x:v>
+      </x:c>
       <x:c r="D67" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3024,7 +3046,9 @@
       <x:c r="B68" s="9">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C68" s="35"/>
+      <x:c r="C68" s="35" t="n">
+        <x:v>-————-—-————_.___....._.____.__________</x:v>
+      </x:c>
       <x:c r="D68" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3052,7 +3076,9 @@
       <x:c r="B69" s="9">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C69" s="35"/>
+      <x:c r="C69" s="35" t="n">
+        <x:v>.IM YOUR SOLORZANO QUILICHE</x:v>
+      </x:c>
       <x:c r="D69" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3080,7 +3106,9 @@
       <x:c r="B70" s="9">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C70" s="35"/>
+      <x:c r="C70" s="35" t="n">
+        <x:v>—-—-———~——.—______________.___</x:v>
+      </x:c>
       <x:c r="D70" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3108,7 +3136,9 @@
       <x:c r="B71" s="9">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C71" s="35"/>
+      <x:c r="C71" s="35" t="n">
+        <x:v>VAN STALIN GUEVARA RODRIGUEZ</x:v>
+      </x:c>
       <x:c r="D71" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3136,7 +3166,9 @@
       <x:c r="B72" s="9">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C72" s="35"/>
+      <x:c r="C72" s="35" t="n">
+        <x:v>M</x:v>
+      </x:c>
       <x:c r="D72" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3164,7 +3196,9 @@
       <x:c r="B73" s="9">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C73" s="35"/>
+      <x:c r="C73" s="35" t="n">
+        <x:v>IORGE ROBERTO CHAVEZ GONZALES</x:v>
+      </x:c>
       <x:c r="D73" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3192,7 +3226,9 @@
       <x:c r="B74" s="9">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C74" s="35"/>
+      <x:c r="C74" s="35" t="n">
+        <x:v>-—-——-——-——-—~———-————_____.._.__________</x:v>
+      </x:c>
       <x:c r="D74" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -3220,7 +3256,9 @@
       <x:c r="B75" s="9">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C75" s="35"/>
+      <x:c r="C75" s="35" t="n">
+        <x:v>)MAR HENRY CHIRINOS FMARDO</x:v>
+      </x:c>
       <x:c r="D75" s="32" t="s">
         <x:v>38</x:v>
       </x:c>
